--- a/filetest.xlsx
+++ b/filetest.xlsx
@@ -20,21 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">dsaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdsassf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laravel</t>
   </si>
 </sst>
 </file>
@@ -108,8 +114,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,10 +140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -151,8 +161,47 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/filetest.xlsx
+++ b/filetest.xlsx
@@ -20,41 +20,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laravel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Mức độ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nội dung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu trả lời 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu trả lời 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu trả lời 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu trả lời 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đáp án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cú pháp đúng khi khai báo 1 biến trong PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diem=3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$diem = 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%diem = 9;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ diem=5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cài đặt Apache xong bạn có thể kiểm tra servername của bạn qua cách gọi ulr http://localhost, ngoài cách này còn cách nào khác nữa không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://000.0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi sử dụng bộ PHP &amp; Apache bạn phải trả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50$ / mỗi tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">không tốn đồng nào</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +111,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,13 +160,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,68 +202,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.38"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
